--- a/31_請求書.xlsx
+++ b/31_請求書.xlsx
@@ -7,15 +7,17 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="商品リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="請求書" sheetId="1" r:id="rId1"/>
+    <sheet name="見積書" sheetId="3" r:id="rId2"/>
+    <sheet name="納品書" sheetId="4" r:id="rId3"/>
+    <sheet name="商品リスト" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -204,6 +206,117 @@
   </si>
   <si>
     <t>レターケース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積書</t>
+    <rPh sb="0" eb="3">
+      <t>ミツモリショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記の通り、御見積申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>オミツモリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品先</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日から30日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品書</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記の通り、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>摘要：</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品書番号：</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロビーチェア3人掛け</t>
+    <rPh sb="7" eb="9">
+      <t>ニンカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -211,8 +324,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="@&quot;様   &quot;"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="@&quot;様   &quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,###&quot;円&quot;"/>
+    <numFmt numFmtId="180" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -237,44 +353,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -297,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -368,6 +481,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -378,38 +500,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -431,8 +572,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
+  <sortState ref="A2:C11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="注文番号"/>
     <tableColumn id="2" name="商品名"/>
@@ -732,193 +876,263 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>VLOOKUP(Sheet1!A11,テーブル1[],2,FALSE)</f>
-        <v>折り畳みテーブル</v>
-      </c>
-      <c r="C11" s="2">
-        <f>VLOOKUP(Sheet1!A11,テーブル1[],3,FALSE)</f>
-        <v>15900</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" ref="E11:E16" si="0">C11*D11</f>
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="13">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A11,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="10" t="str">
+        <f>IFERROR(C11*D11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A12,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="10" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A13,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="13">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A14,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="13">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="13">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f>IFERROR(VLOOKUP(請求書!A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="5" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="13">
         <f>SUM(E11:E16)</f>
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="16">
         <v>0.08</v>
       </c>
       <c r="E18" s="13">
         <f>ROUNDDOWN(E17*D18,0)</f>
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="13">
         <f>E17+E18</f>
-        <v>17172</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:C4"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A7:C8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -928,10 +1142,546 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E3" activeCellId="2" sqref="A11:A16 D11:D16 E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A11,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="10" t="str">
+        <f>IFERROR(C11*D11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A12,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="10" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A13,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A14,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f>IFERROR(VLOOKUP(見積書!A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="13">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A7:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A11,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="10" t="str">
+        <f>IFERROR(C11*D11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A12,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="10" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A13,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A14,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f>IFERROR(VLOOKUP(納品書!A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="13">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1020,34 +1770,45 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>12300</v>
+        <v>54800</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>26700</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>3002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>3003</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>3500</v>
       </c>
     </row>
